--- a/biology/Zoologie/Louis_Bedel/Louis_Bedel.xlsx
+++ b/biology/Zoologie/Louis_Bedel/Louis_Bedel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Bedel, né Louis Ernest Marie Bedel le 16 mai 1849 à Mantes-sur-Seine et mort le 26 janvier 1922 à Paris, est un entomologiste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Bedel fait ses études à Nantes, puis à Paris où il a pour condisciple le futur entomologiste Maurice Sédillot (1849-1933). Son père lui fait participer à des sorties naturalistes où il rencontre de grands noms de l’histoire naturelle comme Alcide Dessalines d'Orbigny (1802-1857) et qui étaient fréquentées également par de futurs scientifiques comme Henry Le Chatelier (1850-1936), Henri d'Orbigny (1845-1915) ou Pierre Émile Gounelle (1850-1914).
 Il participe à la guerre de 1870 avant de continuer des études de droit. Bedel signe près de trois cents publications principalement consacrées aux coléoptères. Sa collection est conservée au Muséum national d'histoire naturelle.
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (1912).
  Chevalier de l'ordre du Mérite agricole.</t>
